--- a/upload/template.xlsx
+++ b/upload/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ключевые слова" sheetId="1" state="visible" r:id="rId1"/>
@@ -106,43 +106,43 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -489,7 +489,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="62.109375"/>
+    <col width="62.109375" customWidth="1" style="11" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,7 +580,7 @@
     <row r="14"/>
     <row r="15"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -592,18 +592,18 @@
   </sheetPr>
   <dimension ref="A1:M83940"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="88.5546875"/>
-    <col customWidth="1" max="2" min="2" style="11" width="165.109375"/>
-    <col customWidth="1" max="3" min="3" style="11" width="37.5546875"/>
+    <col width="88.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="165.109375" customWidth="1" style="11" min="2" max="2"/>
+    <col width="37.5546875" customWidth="1" style="11" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" s="11" thickBot="1" thickTop="1">
+    <row r="1" ht="15.6" customHeight="1" s="11" thickBot="1" thickTop="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>поле для анализа: actions_category</t>
@@ -620,7 +620,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.8" r="2" s="11" thickTop="1">
+    <row r="2" ht="43.8" customHeight="1" s="11" thickTop="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, хранение, использование, уточнение (обновление, изменение), накопление, обезличивание, блокирование, уничтожение, передача в казначейство, банк, налоговую службу, федеральные фонды.</t>
@@ -637,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="3" s="11">
+    <row r="3" ht="28.8" customHeight="1" s="11">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в том числе передача), уничтожение персональных данных.</t>
@@ -654,7 +654,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="4" s="11">
+    <row r="4" ht="43.2" customHeight="1" s="11">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных.</t>
@@ -688,7 +688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="6" s="11">
+    <row r="6" ht="28.8" customHeight="1" s="11">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение, распространение, обезличивание, уничтожение</t>
@@ -705,7 +705,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="7" s="11">
+    <row r="7" ht="43.2" customHeight="1" s="11">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>смешанная обработка вышеуказанных персональных данных будет осуществляться с использованием ПЭВМ (информация доступна лишь для строго определенных сотрудников юридического лица), с передачей полученной информации по локальной сети.</t>
@@ -722,7 +722,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="8" s="11">
+    <row r="8" ht="28.8" customHeight="1" s="11">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Формирование документации, необходимой для осуществления образовательной и научной деятельности.</t>
@@ -739,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="9" s="11">
+    <row r="9" ht="43.2" customHeight="1" s="11">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача, распространение, предоставление, блокирование, трансграничная передача, удаление, уничтожение персональных данных.</t>
@@ -756,7 +756,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="10" s="11">
+    <row r="10" ht="43.2" customHeight="1" s="11">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновления, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных.</t>
@@ -773,7 +773,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="11" s="11">
+    <row r="11" ht="28.8" customHeight="1" s="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение, использование, распространение, блокирование, уничтожение</t>
@@ -790,7 +790,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="12" s="11">
+    <row r="12" ht="43.2" customHeight="1" s="11">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение.</t>
@@ -824,7 +824,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="14" s="11">
+    <row r="14" ht="43.2" customHeight="1" s="11">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Смешанная обработка ПД с использованием ПЭВМ (информация доступна лишь для строго определенных сотрудников юридического лица) без передачи полученной информации с использованием сети общего пользования Интернет.</t>
@@ -841,7 +841,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="15" s="11">
+    <row r="15" ht="28.8" customHeight="1" s="11">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>смешанная обработка с использованием ПК с передачей полученной информации с использованием сети общего пользования Интернет</t>
@@ -858,7 +858,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="16" s="11">
+    <row r="16" ht="57.6" customHeight="1" s="11">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Смешанная обработка вышеуказанных персональных данных будет осуществляться с использованием ПЭВМ (информация доступна лишь для строго определенных сотрудников юридического лица) с передачей полученной информации, с использованием сети общего пользования Интернет.</t>
@@ -875,7 +875,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="17" s="11">
+    <row r="17" ht="28.8" customHeight="1" s="11">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>смешанная обработка с использованием бумажных носителей и ПК, с передачей полученной информации по внутренней сети учреждения и сети общего пользования Интернет</t>
@@ -892,7 +892,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="18" s="11">
+    <row r="18" ht="43.2" customHeight="1" s="11">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>сбор; запись; систематизация; накопление; хранение; уточнение (обновление, изменение); извлечение; использование; передача (распространение, предоставление, доступ); обезличивание; блокирование; удаление; уничтожение</t>
@@ -909,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="19" s="11">
+    <row r="19" ht="43.2" customHeight="1" s="11">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>смешанная обработка персональных данных с передачей данных, с использованием закрытых ЛВС МВД России; работа с данными на категорированном компьютерном рабочем месте, работа на АРМ ЭВМ</t>
@@ -926,7 +926,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="20" s="11">
+    <row r="20" ht="57.6" customHeight="1" s="11">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление,_x000D_
@@ -946,7 +946,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="21" s="11">
+    <row r="21" ht="43.2" customHeight="1" s="11">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>прием, сбор, систематизация, накопление, использование, хранение, уточнение (обновление, изменение), распространение (в том числе передачу), уничтожение, блокирование, обезличивание</t>
@@ -963,7 +963,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="22" s="11">
+    <row r="22" ht="28.8" customHeight="1" s="11">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение, использование, обезличивание, удаление, уничтожение</t>
@@ -980,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="23" s="11">
+    <row r="23" ht="28.8" customHeight="1" s="11">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в т. ч. передача), уничтожение.</t>
@@ -997,7 +997,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="24" s="11">
+    <row r="24" ht="43.2" customHeight="1" s="11">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="25" s="11">
+    <row r="25" ht="57.6" customHeight="1" s="11">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Обработка персональных данных осуществляется путем смешанной обработки персональных данных. Информация, полученная в ходе обработки персональных данных передается по внутренней (локальной) информационной сети юридического лица, которая доступна для строго определенных должностных лиц СПбГУЭФ, в соответствии с приказом ректора.</t>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="26" s="11">
+    <row r="26" ht="43.2" customHeight="1" s="11">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение.</t>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="27" s="11">
+    <row r="27" ht="43.2" customHeight="1" s="11">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных.</t>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="28" s="11">
+    <row r="28" ht="28.8" customHeight="1" s="11">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение  (в том числе  передача), уничтожение.</t>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="30" s="11">
+    <row r="30" ht="72" customHeight="1" s="11">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Обработка персональных данных осуществляется путём смешанной обработки,  включающей сбор, систематизацию, накопление, хранение, уточнение и  использование с передачей информации по внутренней сети ДВГТУ в специально выделенных помещениях с использованием программных средств аутентификации и авторизации пользователями, включенными в список лиц, допущенных к обработке персональных данных</t>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="158.4" r="31" s="11">
+    <row r="31" ht="158.4" customHeight="1" s="11">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>неавтоматизированная обработка — ведение трудовых книжек, личных дел, договоров, списков сотрудников и обучающихся, картотек со сведениями о сотрудниках, картотек со сведениями о студентах, журналов учебных групп; автоматизированная обработка - внесение персональных данных работников в информационные системы: Система организации приемной компании ИС УЗ «Модус» (подсистема «Абитуриент»); Автоматизированная информационная библиотечная система МАРК-SQL; Автоматизированная система документооборота «Дело-Предприятие»; Система расчета и начисления зарплаты сотрудникам «АМБА»; Система расчета стипендии «АМБА»; Система ведения кадрового учета и расчета зарплаты «Контур-Персонал»; Автоматизированная система бухгалтерского учета для бюджетных учреждений «Парус бухгалтерия»; операции с персональными данными - сбор, хранение, накопление, уточнение, использование, передача, уничтожение данных</t>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="32" s="11">
+    <row r="32" ht="43.2" customHeight="1" s="11">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление,хранение, уточнение (обновление, изменени), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение персональных данных.</t>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="33" s="11">
+    <row r="33" ht="43.2" customHeight="1" s="11">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных</t>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="34" s="11">
+    <row r="34" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>смешанная обработка персональных данных с передачей информации по внутренней защищенной локальной сети университета без выхода во внешние сети; передача деперсонализированных общедоступных данных в открытые системы: государственные организации по сбору статистики, вышестоящие федеральные организации; передача данных в организации: банки, налоговая служба, пенсионный фонд, казначейство, государственные организации по сбору статистики, вышестоящие федеральные организации;</t>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="36" s="11">
+    <row r="36" ht="28.8" customHeight="1" s="11">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение, обезличивание, блокирование, уничтожение</t>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="37" s="11">
+    <row r="37" ht="43.2" customHeight="1" s="11">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение, (обновление, изменение), извлечение, использование, передача (предоставление), блокирование, удаление, уничтожение.
@@ -1236,7 +1236,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="38" s="11">
+    <row r="38" ht="43.2" customHeight="1" s="11">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="39" s="11">
+    <row r="39" ht="43.2" customHeight="1" s="11">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление,хранение, уточнение (обновление,изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление. уничтожение персональных данных.</t>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="40" s="11">
+    <row r="40" ht="43.2" customHeight="1" s="11">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных.</t>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="41" s="11">
+    <row r="41" ht="43.2" customHeight="1" s="11">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>обработка: прием, сбор, запись, систематизация, накопление, использование, хранение, уточнение (изменение, обновление), передача (распространение, предоставление, доступ), извлечение, уничтожение, блокирование, обезличивание.</t>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="42" s="11">
+    <row r="42" ht="28.8" customHeight="1" s="11">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>сбор, накопление, хранение, уточнение (обновление, изменение), использование, уничтожение персональных данных</t>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="43" s="11">
+    <row r="43" ht="28.8" customHeight="1" s="11">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, обезличивание, блокирование, уничтожение персональных данных</t>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="44" s="11">
+    <row r="44" ht="43.2" customHeight="1" s="11">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных</t>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="45" s="11">
+    <row r="45" ht="43.2" customHeight="1" s="11">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Cбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в т.ч. передача), обезличивание, блокирование, уничтожение персональных данных.</t>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="46" s="11">
+    <row r="46" ht="43.2" customHeight="1" s="11">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступа), обезличивание, блокирование, удаление, уничтожение персональных данных</t>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="47" s="11">
+    <row r="47" ht="72" customHeight="1" s="11">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), ис-пользование, передача в Территориальные органы Фонда обязательного медицинского стра-хования, Территориальные органы Фонда социального страхования РФ, Территориальные органы Пенсионного фонда Российской Федерации, Территориальные органы ФНС России, региональные отделения Сбербанка России, военные комиссариаты</t>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="48" s="11">
+    <row r="48" ht="43.2" customHeight="1" s="11">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение, (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение.</t>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="51" s="11">
+    <row r="51" ht="43.2" customHeight="1" s="11">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извле-чение, использование, передача (распространение, предоставление, доступ), обезличивание, бло-кирование, удаление, уничтожение персональных данных</t>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="52" s="11">
+    <row r="52" ht="43.2" customHeight="1" s="11">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (распространение, предоставление, доступ), блокирование, удаление, уничтожение персональных данных.</t>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="53" s="11">
+    <row r="53" ht="72" customHeight="1" s="11">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (предоставление, доступ), обезличивание, блокирование, удаление, уничтожение. Такие действия как использование, уточнение (обновление, изменение), передача, обезличивание, блокирование, уничтожение осуществляются с использованием персонального компьютера при непосредственном участии человека</t>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="54" s="11">
+    <row r="54" ht="43.2" customHeight="1" s="11">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в том числе передача),  блокирование, уничтожение персональных данных</t>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="55" s="11">
+    <row r="55" ht="43.2" customHeight="1" s="11">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение, копирование, удаление, обновление, изменение, использование, распространение (передача), обезличивание, блокирование, уничтожение, извлечение.</t>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="57" s="11">
+    <row r="57" ht="43.2" customHeight="1" s="11">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение, персональных данных</t>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="58" s="11">
+    <row r="58" ht="43.2" customHeight="1" s="11">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в том числе передача), обезличивание, блокирование, уничтожение</t>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="59" s="11">
+    <row r="59" ht="57.6" customHeight="1" s="11">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Ведение трудовых книжек;_x000D_ ведение личных дел на работников университета;_x000D_ ведение личных дел студентов университета;_x000D_ учет и хранение договоров, заключенных с физическими лицами: заказчиками и потребителями;_x000D_ учет и хранение государственных контрактов на оказание преподавательских услуг.</t>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="60" s="11">
+    <row r="60" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, обновление, изменение, использование, обезличивание, блокирование, уничтожение; в том числе посредством внесения их в электронную базу данных, включения в списки (реестры) и отчетные формы, предусмотренные документами, регламентирующими предоставление отчетных данных (документов) передаваемых по локальной сети юридического лица и по сети Интернет в части сдачи налоговой и бухгалтерской отчетности и начисления взносов на обязательное пенсионное страхование</t>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="61" s="11">
+    <row r="61" ht="43.2" customHeight="1" s="11">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение),_x000D_ использование, распространение (в том числе передача), обезличивание, блокирование,_x000D_ уничтожение персональных данных.</t>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="62" s="11">
+    <row r="62" ht="43.2" customHeight="1" s="11">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="63" s="11">
+    <row r="63" ht="28.8" customHeight="1" s="11">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>путем: смешанной обработки персональных данных. Информация передается по внутренней сети организации, доступ к информации имеет ограниченный круг должностных лиц.</t>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="64" s="11">
+    <row r="64" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>неавтоматизированная обработка-ведение трудовых книжек, личных дел, журналов, отчётов, анкет, заявлений договоров; автоматизированная обработка - внесение в ИСПДн: «Корпоративная информационная система БашГУ», «Сайт» БашГУ, «СКУД БашГУ»; операции с персональными данными: сбор,запись, систематизация,накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу, обезличивание, блокирование, удаление, уничтожение</t>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="28.8" r="65" s="11">
+    <row r="65" ht="28.8" customHeight="1" s="11">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в т. ч. передача), уничтожение.</t>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="66" s="11">
+    <row r="66" ht="43.2" customHeight="1" s="11">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использования, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение.</t>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="69" s="11">
+    <row r="69" ht="43.2" customHeight="1" s="11">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение персональных данных.</t>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="70" s="11">
+    <row r="70" ht="28.8" customHeight="1" s="11">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>смешанная; с передачей по внутренней сети юридического лица; без передачи по сети_x000D_
@@ -1799,7 +1799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="71" s="11">
+    <row r="71" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>ведения трудовых книжек, личных дел работников и обучающихся, внесения информации в информационные системы Департамента образования города Москвы и общегородские информационные системы, хранения, систематизации, уточнения, блокирования, уничтожения персональных данных, передачи персональных данных третьим лицам только на основании федеральных законов, устанавливающих цель, условия получения персональных данных и круг субъектов персональных данных, обеспечения предоставления социального пакета</t>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="72" s="11">
+    <row r="72" ht="57.6" customHeight="1" s="11">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>ФГБОУ ВПО "АГУ" осуществляет следующие действия, совершаемые с персональными данными, включая сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение, персональных данных.</t>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="73" s="11">
+    <row r="73" ht="28.8" customHeight="1" s="11">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, передача, уничтожение.</t>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="75" s="11">
+    <row r="75" ht="43.2" customHeight="1" s="11">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в том числе передача), обезличивание, блокирование и уничтожение.</t>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="77" s="11">
+    <row r="77" ht="28.8" customHeight="1" s="11">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (изменение, обновление), использование, передача, обезличивание, блокирование, удаление, уничтожение</t>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="78" s="11">
+    <row r="78" ht="57.6" customHeight="1" s="11">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>Обработка  вышеуказанных  персональных  данных  будет  осуществляться  путем:  сбора, записи,  систематизации,  накопления,  хранения,  уточнения  (обновления,  изменения), извлечения,  использования,  передачи  (распространения,  предоставления,  доступа), обезличивания, блокировки, удаления, уничтожения персональных данных.</t>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="79" s="11">
+    <row r="79" ht="72" customHeight="1" s="11">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>неавтоматизированная обработка - ведение трудовых книжек, личных дел, журналов, отчётов, договоров; автоматизированная обработка - внесение персональных данных в информационную систему ИСПДн УГНТУ; операции с персональными данными: сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение!, извлечение, использование, передача /предоставление, доступ!, блокирование, удаление, уничтожение персональных данных</t>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="80" s="11">
+    <row r="80" ht="43.2" customHeight="1" s="11">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="81" s="11">
+    <row r="81" ht="43.2" customHeight="1" s="11">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="84" s="11">
+    <row r="84" ht="57.6" customHeight="1" s="11">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Обработка вышеуказанных персональных данных будет осуществляться путем сбора, записи, систематизации, накопления, хранения, уточнения (обновления, изменения), извлечения, использования, передачи (распространения, предоставления, доступа), обезличивания, блокирования, удаления, уничтожения персональных данных.</t>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="187.2" r="85" s="11">
+    <row r="85" ht="187.2" customHeight="1" s="11">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>обработка вышеуказанных персональных данных будет осуществляться путем: смешанная обработка персональных данных с передачей информации по внутренним защищенным локальным сетям ЮРГПУ(НПИ) без выхода во внешние сети, неавтоматизированная обработка персональных данных, смешанная обработка общедоступных персональных данных,передача деперсонализированных общедоступных данных в открытые системы, передача деперсонализированных статистических данных в открытые системы: государственные организации по сбору статистики, вышестоящие федеральные организации, передача данных в организации: банки, налоговая служба, пенсионный фонд, казначейство, государственные организации по сбору статистики, вышестоящие федеральные организации. Университет при обработке персональных данных принимает все необходимые правовые, организационные и технические меры для их защиты от неправомерного или случайного доступа, уничтожения, изменения, блокирования, копирования, предоставления, распространения, а также от иных неправомерных действий в отношении них.</t>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="86" s="11">
+    <row r="86" ht="43.2" customHeight="1" s="11">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, распространение (в том числе передача), обезличивание, блокирование, уничтожение персональных данных.</t>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="87" s="11">
+    <row r="87" ht="43.2" customHeight="1" s="11">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>осуществляется путем: сбора, записи, систематизации, накопления, хранения,   уточнения (обновления, изменения), использования, передачи (распространения, предоставления, доступа), обезличивания, блокирования, удаления, уничтожения персональных данных.</t>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="88" s="11">
+    <row r="88" ht="43.2" customHeight="1" s="11">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>осуществляется путем: сбора, записи, систематизации, накопления, хранения,   уточнения (обновления, изменения), использования, передачи (распространения, предоставления, доступа), обезличивания, блокирования, удаления, уничтожения персональных данных.</t>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="89" s="11">
+    <row r="89" ht="100.8" customHeight="1" s="11">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Автоматизировано с использованием биллинговой системы BG Billing, автоматизированных систем (внутренние системы хранения "1С: Бухгалтерия государственных учреждений", "1С: Университет", "1С: Камин. Заработная плата"). Данные включают сбор, запись, систематизацию, накопление, хранение, уточнение, извлечение, использование, удаление, уничтожение персональных данных и доступны только ряду ответственных сотрудников. Неавтоматизированная обработка включает в себя работу с договорами, трудовыми книжками, бумажной картотекой сотрудников и студентов.</t>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="90" s="11">
+    <row r="90" ht="43.2" customHeight="1" s="11">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="91" s="11">
+    <row r="91" ht="28.8" customHeight="1" s="11">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, хранение, уточнение (обновление, изменение), использование, передача (предоставление), удаление.</t>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="92" s="11">
+    <row r="92" ht="72" customHeight="1" s="11">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, передача, уничтожение. Смешанная обработка вышеуказанных персональных данных осуществляется с использованием автоматизированных систем обработки данных, с передачей полученной информации по внутренней локальной вычислительной сети и с использованием сети Интернет.</t>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="93" s="11">
+    <row r="93" ht="72" customHeight="1" s="11">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Обработка вышеуказанных персональных данных будет осуществляться путем смешанной обработки персональных данных с передачей полученной в ходе обработки персональных данных информации по внутренней сети НИЯУ МИФИ (информация доступна лишь для строго определенных сотрудников юридического лица), в т.ч. с использованием сети общего пользования.</t>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="94" s="11">
+    <row r="94" ht="43.2" customHeight="1" s="11">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение использования, распространение), в том числе передача), обезличивание, блокирование, уничтожение персональных данных)</t>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="95" s="11">
+    <row r="95" ht="43.2" customHeight="1" s="11">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение.</t>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="96" s="11">
+    <row r="96" ht="100.8" customHeight="1" s="11">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Сбор, накопление, хранение, уточнение (обновление, изменение), систематизация, использование, распространение (в том числе передача), обезличивание, блокирование, уничтожение персональных данных, необходимых для ведения образовательной и административно-хозяйственной деятельности. Обмен (прием, передача) персональными данными между АГГПУ им. В.М. Шукшина  и третьими лицами (организациями) в соответствии с заключенными между ними договорами и соглашениями, в целях соблюдения законных прав и интересов субъекта персональных данных.</t>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="97" s="11">
+    <row r="97" ht="43.2" customHeight="1" s="11">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных</t>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="98" s="11">
+    <row r="98" ht="57.6" customHeight="1" s="11">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>сбор; запись; систематизация; накопление; хранение; уточнение (обновление, изменение); извлечение; использование; передача (в том числе трансграничная); доступ и предоставление указанным в настоящем согласии организациям;   обезличивание; блокирование; удаление; уничтожение.</t>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="99" s="11">
+    <row r="99" ht="57.6" customHeight="1" s="11">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>неавтоматизированная обработка - ведение трудовых книжек, личных дел, журналов, отчётов, договоров; автоматизированная обработка - внесение персональных данных в информационные системы 1C, ПФР, СКУД, Спринт, Деканат; операции с персональными данными: сбор, хранение, накопление, уточнение, передача, уничтожение данных</t>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="100" s="11">
+    <row r="100" ht="43.2" customHeight="1" s="11">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>сбора, записи, систематизации, накопления, хранения, уточнения (обновления, изменения), извлечения, использования, передачи (распространения, предоставления, доступа), блокирования, удаления, уничтожения персональных данных</t>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="101" s="11">
+    <row r="101" ht="43.2" customHeight="1" s="11">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>сбора, записи, систематизации, накопления, хранения, уточнения (обновление, изменение), извлечения, использования, передачи (распространение, предоставление, доступ), обезличивания, блокирования, удаления, уничтожения персональных данных</t>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="102" s="11">
+    <row r="102" ht="28.8" customHeight="1" s="11">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, передача, уничтожение.</t>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="103" s="11">
+    <row r="103" ht="57.6" customHeight="1" s="11">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>сбор, хранение, передача, обработка, уничтожение_x000D_
@@ -2362,7 +2362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="104" s="11">
+    <row r="104" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Краснодарский государственный университет культуры и искусств" осуществляет следующие действия, совершаемые с персональными данными, включая сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передачу (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение, персональных данных.</t>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="43.2" r="105" s="11">
+    <row r="105" ht="43.2" customHeight="1" s="11">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="106" s="11">
+    <row r="106" ht="28.8" customHeight="1" s="11">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уничтожение, распространение только в соответствии с действующим законодательством, обезличивание, блокирование.</t>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="107" s="11">
+    <row r="107" ht="28.8" customHeight="1" s="11">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение, извлечение, использование, передача, обезличивание, удаление, уничтожение</t>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="108" s="11">
+    <row r="108" ht="72" customHeight="1" s="11">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, извлечение, обезличивание, блокирование, удаление, уничтожение, передачу (распространение, доступ, предоставление), а также иных действий с учетом федерального законодательства и с согласия субъекта персональных данных на обработку его персональных данных</t>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="144" r="109" s="11">
+    <row r="109" ht="144" customHeight="1" s="11">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Сбор (требование необходимых документов), систематизация (фиксирование на бумажном носителе, занесение в личное дело, карточку формы Т-2), напокление, хранение, уточнение (внесение изменений), передача, уничтожение персональных данных на бумажном носителе методом неавтоматизированной обработки. Смешанная обработка с использованием ПЭВМ, в неавтоматизированной информационной системе (на внутреннем сервере с использованием права доступа, архивирования баз данных) и обработка персональных данных на бумажных носителях, ведения личных дел. Персональные данные передаются по внутренней сети учреждения, по сети общего пользования Интернет (электронной почте). Персональные данные передаются по почте заказными письмами, курьерами на бумажном и электронном носителе в соответствии с законодательством Российской Федерации.</t>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="110" s="11">
+    <row r="110" ht="43.2" customHeight="1" s="11">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных</t>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="111" s="11">
+    <row r="111" ht="28.8" customHeight="1" s="11">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>сбор; систематизация; накопление; хранение; уточнение (обновление; изменение); использование; распространение (в том числе передача); обезличивание; уничтожение</t>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="113" s="11">
+    <row r="113" ht="57.6" customHeight="1" s="11">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>систематизация, накопление, хранение, комбинирование, уточнение (обновление, изменение), использование, обезличивание, удаление. Передача данных об абитуриентах в ФИС ЕГЭ и приема Рособрнадзора РФ.</t>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="114" s="11">
+    <row r="114" ht="43.2" customHeight="1" s="11">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение персональных данных;</t>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="115" s="11">
+    <row r="115" ht="72" customHeight="1" s="11">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Обработка вышеуказанных персональных данных будет осуществляться путём неавтоматизированной обработки персональных данных - ведение трудовых книжек, личных дел, договоров._x000D_
@@ -2568,7 +2568,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="116" s="11">
+    <row r="116" ht="28.8" customHeight="1" s="11">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Сбор, систематизация, накопление, хранение, уточнение (обновление, изменение), использование, обезличивание, блокирование, уничтожение</t>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="117" s="11">
+    <row r="117" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Смешанная обработка персональных данных осуществляется с использованием ПЭВМ с передачей информации по внутренним защищенным локальным сетям. Передача полученной информации в банки, налоговую службу, пенсионный фонд, казначейство, государственные организации по сбору статистики, вышестоящие федеральные организации осуществляется с использованием сети общего пользования Интернет с применением программных средств электронной подписи используемых вышеперечисленными организациями.</t>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="118" s="11">
+    <row r="118" ht="57.6" customHeight="1" s="11">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>путем смешанной обработки, включающей сбор, систематизацию, накопление, хранение, передачу персональных данных. Информация, полученная в ходе обработки персональных данных передается по внутренней сети юридического лица (информация доступна для строго определенных сотрудников юридического лица).</t>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="119" s="11">
+    <row r="119" ht="43.2" customHeight="1" s="11">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание, блокирование, удаление, уничтожение</t>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="120" s="11">
+    <row r="120" ht="43.2" customHeight="1" s="11">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение персональных данных.</t>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="122" s="11">
+    <row r="122" ht="43.2" customHeight="1" s="11">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), проверка, обезличивание, блокирование, удаление, уничтожение</t>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="123" s="11">
+    <row r="123" ht="43.2" customHeight="1" s="11">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Сбор , запись, систематизация, накопление, хранение, уточнение ( обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), обезличивание , блокирование, удаление, уничтожение.</t>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="125" s="11">
+    <row r="125" ht="43.2" customHeight="1" s="11">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (распространение, предоставление, доступ), блокирование, удаление, уничтожение персональных данных.</t>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="127" s="11">
+    <row r="127" ht="28.8" customHeight="1" s="11">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, систематизация, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, передача (предоставление), обезличивание, удаление.</t>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="128" s="11">
+    <row r="128" ht="28.8" customHeight="1" s="11">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Сбор, запись, обработка, использование, хранение, уточнение, передача, извлечение, накопление, блокирование, обезличивание</t>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="129" s="11">
+    <row r="129" ht="28.8" customHeight="1" s="11">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>сбор, запись, систематизацию, накопление, хранение, уточнение (обновление, изменение), извлечение, использование, обезличивание,удаление, уничтожение персональных данных</t>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.8" r="130" s="11">
+    <row r="130" ht="28.8" customHeight="1" s="11">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>обработка и хранение на информационных системах и бумажных носителях, работа с персональными документами сотрудников и студентов, ведение их личных дел и учета.</t>
@@ -3039,7 +3039,7 @@
       <c r="C83940" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -3052,23 +3052,23 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="41.88671875"/>
-    <col customWidth="1" max="2" min="2" style="11" width="58.109375"/>
-    <col customWidth="1" max="3" min="3" style="11" width="31"/>
-    <col customWidth="1" max="4" min="4" style="11" width="27.88671875"/>
-    <col customWidth="1" max="5" min="5" style="11" width="48.77734375"/>
-    <col customWidth="1" max="6" min="6" style="11" width="21"/>
-    <col customWidth="1" max="7" min="7" style="11" width="26.6640625"/>
-    <col customWidth="1" max="11" min="11" style="11" width="25.109375"/>
+    <col width="41.88671875" customWidth="1" style="11" min="1" max="1"/>
+    <col width="58.109375" customWidth="1" style="11" min="2" max="2"/>
+    <col width="31" customWidth="1" style="11" min="3" max="3"/>
+    <col width="27.88671875" customWidth="1" style="11" min="4" max="4"/>
+    <col width="48.77734375" customWidth="1" style="11" min="5" max="5"/>
+    <col width="21" customWidth="1" style="11" min="6" max="6"/>
+    <col width="26.6640625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="25.109375" customWidth="1" style="11" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>данные</t>
@@ -15420,7 +15420,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15438,19 +15438,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="32.109375"/>
-    <col customWidth="1" max="2" min="2" style="11" width="64.109375"/>
-    <col customWidth="1" max="3" min="3" style="11" width="58.109375"/>
-    <col customWidth="1" max="4" min="4" style="11" width="29.21875"/>
-    <col customWidth="1" max="5" min="5" style="11" width="27.88671875"/>
-    <col customWidth="1" max="6" min="6" style="11" width="48.77734375"/>
-    <col customWidth="1" max="7" min="7" style="11" width="21"/>
-    <col customWidth="1" max="8" min="8" style="11" width="26.6640625"/>
-    <col customWidth="1" max="11" min="11" style="11" width="37.6640625"/>
-    <col customWidth="1" max="12" min="12" style="11" width="67.109375"/>
+    <col width="32.109375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="64.109375" customWidth="1" style="11" min="2" max="2"/>
+    <col width="58.109375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="29.21875" customWidth="1" style="11" min="4" max="4"/>
+    <col width="27.88671875" customWidth="1" style="11" min="5" max="5"/>
+    <col width="48.77734375" customWidth="1" style="11" min="6" max="6"/>
+    <col width="21" customWidth="1" style="11" min="7" max="7"/>
+    <col width="26.6640625" customWidth="1" style="11" min="8" max="8"/>
+    <col width="37.6640625" customWidth="1" style="11" min="11" max="11"/>
+    <col width="67.109375" customWidth="1" style="11" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>данные</t>
@@ -27842,7 +27842,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -27861,18 +27861,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="54.33203125"/>
-    <col customWidth="1" max="2" min="2" style="11" width="58.109375"/>
-    <col customWidth="1" max="3" min="3" style="11" width="29.21875"/>
-    <col customWidth="1" max="4" min="4" style="11" width="27.88671875"/>
-    <col customWidth="1" max="5" min="5" style="11" width="48.77734375"/>
-    <col customWidth="1" max="6" min="6" style="11" width="21"/>
-    <col customWidth="1" max="7" min="7" style="11" width="26.6640625"/>
-    <col customWidth="1" max="10" min="10" style="11" width="37.6640625"/>
-    <col customWidth="1" max="11" min="11" style="11" width="67.109375"/>
+    <col width="54.33203125" customWidth="1" style="11" min="1" max="1"/>
+    <col width="58.109375" customWidth="1" style="11" min="2" max="2"/>
+    <col width="29.21875" customWidth="1" style="11" min="3" max="3"/>
+    <col width="27.88671875" customWidth="1" style="11" min="4" max="4"/>
+    <col width="48.77734375" customWidth="1" style="11" min="5" max="5"/>
+    <col width="21" customWidth="1" style="11" min="6" max="6"/>
+    <col width="26.6640625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="37.6640625" customWidth="1" style="11" min="10" max="10"/>
+    <col width="67.109375" customWidth="1" style="11" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>данные</t>
@@ -46944,7 +46944,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -46957,35 +46957,35 @@
   </sheetPr>
   <dimension ref="A1:Q2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="V2" xSplit="21" ySplit="1"/>
-      <selection activeCell="V1" pane="topRight" sqref="V1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="C1999" pane="bottomRight" sqref="C1999:C2000"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="21" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1999" sqref="C1999:C2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="48.44140625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="54.44140625"/>
-    <col customWidth="1" max="3" min="3" style="11" width="8.21875"/>
-    <col customWidth="1" max="4" min="4" style="11" width="7.109375"/>
-    <col customWidth="1" max="5" min="5" style="11" width="5.77734375"/>
-    <col customWidth="1" max="6" min="6" style="11" width="7.44140625"/>
-    <col customWidth="1" max="8" min="7" style="11" width="8.44140625"/>
-    <col customWidth="1" max="9" min="9" style="11" width="6.5546875"/>
-    <col customWidth="1" max="10" min="10" style="11" width="7.88671875"/>
-    <col customWidth="1" max="11" min="11" style="11" width="7.44140625"/>
-    <col customWidth="1" max="12" min="12" style="11" width="8"/>
-    <col customWidth="1" max="13" min="13" style="11" width="8.77734375"/>
-    <col customWidth="1" max="14" min="14" style="11" width="9.21875"/>
-    <col bestFit="1" customWidth="1" max="16" min="15" style="11" width="4"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="11" width="8"/>
-    <col customWidth="1" max="18" min="18" style="11" width="3.5546875"/>
-    <col customWidth="1" max="19" min="19" style="9" width="16.88671875"/>
+    <col width="48.44140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="54.44140625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.21875" customWidth="1" style="11" min="3" max="3"/>
+    <col width="7.109375" customWidth="1" style="11" min="4" max="4"/>
+    <col width="5.77734375" customWidth="1" style="11" min="5" max="5"/>
+    <col width="7.44140625" customWidth="1" style="11" min="6" max="6"/>
+    <col width="8.44140625" customWidth="1" style="11" min="7" max="8"/>
+    <col width="6.5546875" customWidth="1" style="11" min="9" max="9"/>
+    <col width="7.88671875" customWidth="1" style="11" min="10" max="10"/>
+    <col width="7.44140625" customWidth="1" style="11" min="11" max="11"/>
+    <col width="8" customWidth="1" style="11" min="12" max="12"/>
+    <col width="8.77734375" customWidth="1" style="11" min="13" max="13"/>
+    <col width="9.21875" customWidth="1" style="11" min="14" max="14"/>
+    <col width="4" bestFit="1" customWidth="1" style="11" min="15" max="16"/>
+    <col width="8" bestFit="1" customWidth="1" style="11" min="17" max="17"/>
+    <col width="3.5546875" customWidth="1" style="11" min="18" max="18"/>
+    <col width="16.88671875" customWidth="1" style="9" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="121.8" r="1" s="11">
+    <row r="1" ht="121.8" customHeight="1" s="11">
       <c r="B1" t="inlineStr">
         <is>
           <t>rkn:name_full</t>
@@ -47051,7 +47051,7 @@
       <c r="P1" s="7" t="n"/>
       <c r="Q1" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="72" r="2" s="11">
+    <row r="2" ht="72" customHeight="1" s="11">
       <c r="A2" s="1">
         <f>'данные для анализа'!A2</f>
         <v/>
@@ -47089,7 +47089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="3" s="11">
+    <row r="3" ht="57.6" customHeight="1" s="11">
       <c r="A3" s="1">
         <f>'данные для анализа'!A3</f>
         <v/>
@@ -47127,7 +47127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="4" s="11">
+    <row r="4" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A4" s="1">
         <f>'данные для анализа'!A4</f>
         <v/>
@@ -47174,7 +47174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="5" s="11">
+    <row r="5" ht="57.6" customHeight="1" s="11">
       <c r="A5" s="1">
         <f>'данные для анализа'!A5</f>
         <v/>
@@ -47191,7 +47191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="6" s="11">
+    <row r="6" ht="72" customHeight="1" s="11">
       <c r="A6" s="1">
         <f>'данные для анализа'!A6</f>
         <v/>
@@ -47226,7 +47226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="7" s="11">
+    <row r="7" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A7" s="1">
         <f>'данные для анализа'!A7</f>
         <v/>
@@ -47246,7 +47246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="8" s="11">
+    <row r="8" ht="57.6" customHeight="1" s="11">
       <c r="A8" s="1">
         <f>'данные для анализа'!A8</f>
         <v/>
@@ -47260,7 +47260,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="9" s="11">
+    <row r="9" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A9" s="1">
         <f>'данные для анализа'!A9</f>
         <v/>
@@ -47307,7 +47307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="10" s="11">
+    <row r="10" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A10" s="1">
         <f>'данные для анализа'!A10</f>
         <v/>
@@ -47354,7 +47354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="11" s="11">
+    <row r="11" ht="57.6" customHeight="1" s="11">
       <c r="A11" s="1">
         <f>'данные для анализа'!A11</f>
         <v/>
@@ -47392,7 +47392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="12" s="11">
+    <row r="12" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A12" s="1">
         <f>'данные для анализа'!A12</f>
         <v/>
@@ -47439,7 +47439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="13" s="11">
+    <row r="13" ht="72" customHeight="1" s="11">
       <c r="A13" s="1">
         <f>'данные для анализа'!A13</f>
         <v/>
@@ -47453,7 +47453,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="14" s="11">
+    <row r="14" ht="72" customHeight="1" s="11">
       <c r="A14" s="1">
         <f>'данные для анализа'!A14</f>
         <v/>
@@ -47473,7 +47473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="15" s="11">
+    <row r="15" ht="43.2" customHeight="1" s="11">
       <c r="A15" s="1">
         <f>'данные для анализа'!A15</f>
         <v/>
@@ -47493,7 +47493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="16" s="11">
+    <row r="16" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A16" s="1">
         <f>'данные для анализа'!A16</f>
         <v/>
@@ -47513,7 +47513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="17" s="11">
+    <row r="17" ht="57.6" customHeight="1" s="11">
       <c r="A17" s="1">
         <f>'данные для анализа'!A17</f>
         <v/>
@@ -47533,7 +47533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="18" s="11">
+    <row r="18" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A18" s="1">
         <f>'данные для анализа'!A18</f>
         <v/>
@@ -47580,7 +47580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="19" s="11">
+    <row r="19" ht="72" customHeight="1" s="11">
       <c r="A19" s="1">
         <f>'данные для анализа'!A19</f>
         <v/>
@@ -47600,7 +47600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="20" s="11">
+    <row r="20" ht="100.8" customHeight="1" s="11">
       <c r="A20" s="1">
         <f>'данные для анализа'!A20</f>
         <v/>
@@ -47638,7 +47638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="21" s="11">
+    <row r="21" ht="57.6" customHeight="1" s="11">
       <c r="A21" s="1">
         <f>'данные для анализа'!A21</f>
         <v/>
@@ -47676,7 +47676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="22" s="11">
+    <row r="22" ht="57.6" customHeight="1" s="11">
       <c r="A22" s="1">
         <f>'данные для анализа'!A22</f>
         <v/>
@@ -47717,7 +47717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="23" s="11">
+    <row r="23" ht="43.2" customHeight="1" s="11">
       <c r="A23" s="1">
         <f>'данные для анализа'!A23</f>
         <v/>
@@ -47755,7 +47755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="24" s="11">
+    <row r="24" ht="72" customHeight="1" s="11">
       <c r="A24" s="1">
         <f>'данные для анализа'!A24</f>
         <v/>
@@ -47802,7 +47802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="25" s="11">
+    <row r="25" ht="115.2" customHeight="1" s="11">
       <c r="A25" s="1">
         <f>'данные для анализа'!A25</f>
         <v/>
@@ -47816,7 +47816,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="26" s="11">
+    <row r="26" ht="72" customHeight="1" s="11">
       <c r="A26" s="1">
         <f>'данные для анализа'!A26</f>
         <v/>
@@ -47863,7 +47863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="27" s="11">
+    <row r="27" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A27" s="1">
         <f>'данные для анализа'!A27</f>
         <v/>
@@ -47910,7 +47910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="28" s="11">
+    <row r="28" ht="57.6" customHeight="1" s="11">
       <c r="A28" s="1">
         <f>'данные для анализа'!A28</f>
         <v/>
@@ -47948,7 +47948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="29" s="11">
+    <row r="29" ht="43.2" customHeight="1" s="11">
       <c r="A29" s="1">
         <f>'данные для анализа'!A29</f>
         <v/>
@@ -47962,7 +47962,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="129.6" r="30" s="11">
+    <row r="30" ht="129.6" customHeight="1" s="11">
       <c r="A30" s="1">
         <f>'данные для анализа'!A30</f>
         <v/>
@@ -47997,7 +47997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="302.4" r="31" s="11">
+    <row r="31" ht="302.4" customHeight="1" s="11">
       <c r="A31" s="1">
         <f>'данные для анализа'!A31</f>
         <v/>
@@ -48032,7 +48032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="32" s="11">
+    <row r="32" ht="72" customHeight="1" s="11">
       <c r="A32" s="1">
         <f>'данные для анализа'!A32</f>
         <v/>
@@ -48079,7 +48079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="33" s="11">
+    <row r="33" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A33" s="1">
         <f>'данные для анализа'!A33</f>
         <v/>
@@ -48126,7 +48126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="158.4" r="34" s="11">
+    <row r="34" ht="158.4" customHeight="1" s="11">
       <c r="A34" s="1">
         <f>'данные для анализа'!A34</f>
         <v/>
@@ -48146,7 +48146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="35" s="11">
+    <row r="35" ht="43.2" customHeight="1" s="11">
       <c r="A35" s="1">
         <f>'данные для анализа'!A35</f>
         <v/>
@@ -48160,7 +48160,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="36" s="11">
+    <row r="36" ht="57.6" customHeight="1" s="11">
       <c r="A36" s="1">
         <f>'данные для анализа'!A36</f>
         <v/>
@@ -48198,7 +48198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="37" s="11">
+    <row r="37" ht="100.8" customHeight="1" s="11">
       <c r="A37" s="1">
         <f>'данные для анализа'!A37</f>
         <v/>
@@ -48245,7 +48245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="38" s="11">
+    <row r="38" ht="72" customHeight="1" s="11">
       <c r="A38" s="1">
         <f>'данные для анализа'!A38</f>
         <v/>
@@ -48292,7 +48292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="39" s="11">
+    <row r="39" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A39" s="1">
         <f>'данные для анализа'!A39</f>
         <v/>
@@ -48339,7 +48339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="40" s="11">
+    <row r="40" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A40" s="1">
         <f>'данные для анализа'!A40</f>
         <v/>
@@ -48386,7 +48386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="41" s="11">
+    <row r="41" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A41" s="1">
         <f>'данные для анализа'!A41</f>
         <v/>
@@ -48430,7 +48430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="42" s="11">
+    <row r="42" ht="57.6" customHeight="1" s="11">
       <c r="A42" s="1">
         <f>'данные для анализа'!A42</f>
         <v/>
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="43" s="11">
+    <row r="43" ht="57.6" customHeight="1" s="11">
       <c r="A43" s="1">
         <f>'данные для анализа'!A43</f>
         <v/>
@@ -48497,7 +48497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="44" s="11">
+    <row r="44" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A44" s="1">
         <f>'данные для анализа'!A44</f>
         <v/>
@@ -48544,7 +48544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="45" s="11">
+    <row r="45" ht="57.6" customHeight="1" s="11">
       <c r="A45" s="1">
         <f>'данные для анализа'!A45</f>
         <v/>
@@ -48582,7 +48582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="46" s="11">
+    <row r="46" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A46" s="1">
         <f>'данные для анализа'!A46</f>
         <v/>
@@ -48629,7 +48629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="144" r="47" s="11">
+    <row r="47" ht="144" customHeight="1" s="11">
       <c r="A47" s="1">
         <f>'данные для анализа'!A47</f>
         <v/>
@@ -48661,7 +48661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="48" s="11">
+    <row r="48" ht="72" customHeight="1" s="11">
       <c r="A48" s="1">
         <f>'данные для анализа'!A48</f>
         <v/>
@@ -48708,7 +48708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="49" s="11">
+    <row r="49" ht="57.6" customHeight="1" s="11">
       <c r="A49" s="1">
         <f>'данные для анализа'!A49</f>
         <v/>
@@ -48722,7 +48722,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="50" s="11">
+    <row r="50" ht="43.2" customHeight="1" s="11">
       <c r="A50" s="1">
         <f>'данные для анализа'!A50</f>
         <v/>
@@ -48745,7 +48745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="51" s="11">
+    <row r="51" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A51" s="1">
         <f>'данные для анализа'!A51</f>
         <v/>
@@ -48789,7 +48789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="52" s="11">
+    <row r="52" ht="72" customHeight="1" s="11">
       <c r="A52" s="1">
         <f>'данные для анализа'!A52</f>
         <v/>
@@ -48836,7 +48836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="144" r="53" s="11">
+    <row r="53" ht="144" customHeight="1" s="11">
       <c r="A53" s="1">
         <f>'данные для анализа'!A53</f>
         <v/>
@@ -48883,7 +48883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="54" s="11">
+    <row r="54" ht="57.6" customHeight="1" s="11">
       <c r="A54" s="1">
         <f>'данные для анализа'!A54</f>
         <v/>
@@ -48921,7 +48921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="55" s="11">
+    <row r="55" ht="72" customHeight="1" s="11">
       <c r="A55" s="1">
         <f>'данные для анализа'!A55</f>
         <v/>
@@ -48965,7 +48965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="56" s="11">
+    <row r="56" ht="57.6" customHeight="1" s="11">
       <c r="A56" s="1">
         <f>'данные для анализа'!A56</f>
         <v/>
@@ -48991,7 +48991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="57" s="11">
+    <row r="57" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A57" s="1">
         <f>'данные для анализа'!A57</f>
         <v/>
@@ -49038,7 +49038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="58" s="11">
+    <row r="58" ht="57.6" customHeight="1" s="11">
       <c r="A58" s="1">
         <f>'данные для анализа'!A58</f>
         <v/>
@@ -49076,7 +49076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="59" s="11">
+    <row r="59" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A59" s="1">
         <f>'данные для анализа'!A59</f>
         <v/>
@@ -49093,7 +49093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="172.8" r="60" s="11">
+    <row r="60" ht="172.8" customHeight="1" s="11">
       <c r="A60" s="1">
         <f>'данные для анализа'!A60</f>
         <v/>
@@ -49131,7 +49131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="61" s="11">
+    <row r="61" ht="72" customHeight="1" s="11">
       <c r="A61" s="1">
         <f>'данные для анализа'!A61</f>
         <v/>
@@ -49169,7 +49169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="62" s="11">
+    <row r="62" ht="72" customHeight="1" s="11">
       <c r="A62" s="1">
         <f>'данные для анализа'!A62</f>
         <v/>
@@ -49210,7 +49210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="63" s="11">
+    <row r="63" ht="57.6" customHeight="1" s="11">
       <c r="A63" s="1">
         <f>'данные для анализа'!A63</f>
         <v/>
@@ -49227,7 +49227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="158.4" r="64" s="11">
+    <row r="64" ht="158.4" customHeight="1" s="11">
       <c r="A64" s="1">
         <f>'данные для анализа'!A64</f>
         <v/>
@@ -49274,7 +49274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="65" s="11">
+    <row r="65" ht="57.6" customHeight="1" s="11">
       <c r="A65" s="1">
         <f>'данные для анализа'!A65</f>
         <v/>
@@ -49312,7 +49312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="66" s="11">
+    <row r="66" ht="72" customHeight="1" s="11">
       <c r="A66" s="1">
         <f>'данные для анализа'!A66</f>
         <v/>
@@ -49359,7 +49359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="67" s="11">
+    <row r="67" ht="57.6" customHeight="1" s="11">
       <c r="A67" s="1">
         <f>'данные для анализа'!A67</f>
         <v/>
@@ -49376,7 +49376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="68" s="11">
+    <row r="68" ht="57.6" customHeight="1" s="11">
       <c r="A68" s="1">
         <f>'данные для анализа'!A68</f>
         <v/>
@@ -49399,7 +49399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="69" s="11">
+    <row r="69" ht="72" customHeight="1" s="11">
       <c r="A69" s="1">
         <f>'данные для анализа'!A69</f>
         <v/>
@@ -49446,7 +49446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="70" s="11">
+    <row r="70" ht="43.2" customHeight="1" s="11">
       <c r="A70" s="1">
         <f>'данные для анализа'!A70</f>
         <v/>
@@ -49463,7 +49463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="172.8" r="71" s="11">
+    <row r="71" ht="172.8" customHeight="1" s="11">
       <c r="A71" s="1">
         <f>'данные для анализа'!A71</f>
         <v/>
@@ -49492,7 +49492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="72" s="11">
+    <row r="72" ht="115.2" customHeight="1" s="11">
       <c r="A72" s="1">
         <f>'данные для анализа'!A72</f>
         <v/>
@@ -49539,7 +49539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="73" s="11">
+    <row r="73" ht="43.2" customHeight="1" s="11">
       <c r="A73" s="1">
         <f>'данные для анализа'!A73</f>
         <v/>
@@ -49577,7 +49577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="74" s="11">
+    <row r="74" ht="43.2" customHeight="1" s="11">
       <c r="A74" s="1">
         <f>'данные для анализа'!A74</f>
         <v/>
@@ -49591,7 +49591,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="75" s="11">
+    <row r="75" ht="57.6" customHeight="1" s="11">
       <c r="A75" s="1">
         <f>'данные для анализа'!A75</f>
         <v/>
@@ -49629,7 +49629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="76" s="11">
+    <row r="76" ht="57.6" customHeight="1" s="11">
       <c r="A76" s="1">
         <f>'данные для анализа'!A76</f>
         <v/>
@@ -49643,7 +49643,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="77" s="11">
+    <row r="77" ht="72" customHeight="1" s="11">
       <c r="A77" s="1">
         <f>'данные для анализа'!A77</f>
         <v/>
@@ -49687,7 +49687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="78" s="11">
+    <row r="78" ht="115.2" customHeight="1" s="11">
       <c r="A78" s="1">
         <f>'данные для анализа'!A78</f>
         <v/>
@@ -49734,7 +49734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="144" r="79" s="11">
+    <row r="79" ht="144" customHeight="1" s="11">
       <c r="A79" s="1">
         <f>'данные для анализа'!A79</f>
         <v/>
@@ -49781,7 +49781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="80" s="11">
+    <row r="80" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A80" s="1">
         <f>'данные для анализа'!A80</f>
         <v/>
@@ -49828,7 +49828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="81" s="11">
+    <row r="81" ht="72" customHeight="1" s="11">
       <c r="A81" s="1">
         <f>'данные для анализа'!A81</f>
         <v/>
@@ -49875,7 +49875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="82" s="11">
+    <row r="82" ht="57.6" customHeight="1" s="11">
       <c r="A82" s="1">
         <f>'данные для анализа'!A82</f>
         <v/>
@@ -49904,7 +49904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="83" s="11">
+    <row r="83" ht="57.6" customHeight="1" s="11">
       <c r="A83" s="1">
         <f>'данные для анализа'!A83</f>
         <v/>
@@ -49933,7 +49933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="84" s="11">
+    <row r="84" ht="115.2" customHeight="1" s="11">
       <c r="A84" s="1">
         <f>'данные для анализа'!A84</f>
         <v/>
@@ -49980,7 +49980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="360" r="85" s="11">
+    <row r="85" ht="360" customHeight="1" s="11">
       <c r="A85" s="1">
         <f>'данные для анализа'!A85</f>
         <v/>
@@ -50006,7 +50006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="86" s="11">
+    <row r="86" ht="72" customHeight="1" s="11">
       <c r="A86" s="1">
         <f>'данные для анализа'!A86</f>
         <v/>
@@ -50044,7 +50044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="87" s="11">
+    <row r="87" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A87" s="1">
         <f>'данные для анализа'!A87</f>
         <v/>
@@ -50088,7 +50088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="88" s="11">
+    <row r="88" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A88" s="1">
         <f>'данные для анализа'!A88</f>
         <v/>
@@ -50132,7 +50132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="172.8" r="89" s="11">
+    <row r="89" ht="172.8" customHeight="1" s="11">
       <c r="A89" s="1">
         <f>'данные для анализа'!A89</f>
         <v/>
@@ -50176,7 +50176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="90" s="11">
+    <row r="90" ht="72" customHeight="1" s="11">
       <c r="A90" s="1">
         <f>'данные для анализа'!A90</f>
         <v/>
@@ -50223,7 +50223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="91" s="11">
+    <row r="91" ht="43.2" customHeight="1" s="11">
       <c r="A91" s="1">
         <f>'данные для анализа'!A91</f>
         <v/>
@@ -50258,7 +50258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="129.6" r="92" s="11">
+    <row r="92" ht="129.6" customHeight="1" s="11">
       <c r="A92" s="1">
         <f>'данные для анализа'!A92</f>
         <v/>
@@ -50296,7 +50296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="93" s="11">
+    <row r="93" ht="115.2" customHeight="1" s="11">
       <c r="A93" s="1">
         <f>'данные для анализа'!A93</f>
         <v/>
@@ -50316,7 +50316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="94" s="11">
+    <row r="94" ht="72" customHeight="1" s="11">
       <c r="A94" s="1">
         <f>'данные для анализа'!A94</f>
         <v/>
@@ -50354,7 +50354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="95" s="11">
+    <row r="95" ht="72" customHeight="1" s="11">
       <c r="A95" s="1">
         <f>'данные для анализа'!A95</f>
         <v/>
@@ -50401,7 +50401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="187.2" r="96" s="11">
+    <row r="96" ht="187.2" customHeight="1" s="11">
       <c r="A96" s="1">
         <f>'данные для анализа'!A96</f>
         <v/>
@@ -50439,7 +50439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="97" s="11">
+    <row r="97" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A97" s="1">
         <f>'данные для анализа'!A97</f>
         <v/>
@@ -50486,7 +50486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="98" s="11">
+    <row r="98" ht="100.8" customHeight="1" s="11">
       <c r="A98" s="1">
         <f>'данные для анализа'!A98</f>
         <v/>
@@ -50533,7 +50533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="99" s="11">
+    <row r="99" ht="115.2" customHeight="1" s="11">
       <c r="A99" s="1">
         <f>'данные для анализа'!A99</f>
         <v/>
@@ -50565,7 +50565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="100" s="11">
+    <row r="100" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A100" s="1">
         <f>'данные для анализа'!A100</f>
         <v/>
@@ -50612,7 +50612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="101" s="11">
+    <row r="101" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A101" s="1">
         <f>'данные для анализа'!A101</f>
         <v/>
@@ -50659,7 +50659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="102" s="11">
+    <row r="102" ht="57.6" customHeight="1" s="11">
       <c r="A102" s="1">
         <f>'данные для анализа'!A102</f>
         <v/>
@@ -50697,7 +50697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="103" s="11">
+    <row r="103" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A103" s="1">
         <f>'данные для анализа'!A103</f>
         <v/>
@@ -50723,7 +50723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="172.8" r="104" s="11">
+    <row r="104" ht="172.8" customHeight="1" s="11">
       <c r="A104" s="1">
         <f>'данные для анализа'!A104</f>
         <v/>
@@ -50770,7 +50770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="105" s="11">
+    <row r="105" ht="72" customHeight="1" s="11">
       <c r="A105" s="1">
         <f>'данные для анализа'!A105</f>
         <v/>
@@ -50817,7 +50817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="106" s="11">
+    <row r="106" ht="57.6" customHeight="1" s="11">
       <c r="A106" s="1">
         <f>'данные для анализа'!A106</f>
         <v/>
@@ -50849,7 +50849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="107" s="11">
+    <row r="107" ht="43.2" customHeight="1" s="11">
       <c r="A107" s="1">
         <f>'данные для анализа'!A107</f>
         <v/>
@@ -50896,7 +50896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.2" r="108" s="11">
+    <row r="108" ht="115.2" customHeight="1" s="11">
       <c r="A108" s="1">
         <f>'данные для анализа'!A108</f>
         <v/>
@@ -50943,7 +50943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="273.6" r="109" s="11">
+    <row r="109" ht="273.6" customHeight="1" s="11">
       <c r="A109" s="1">
         <f>'данные для анализа'!A109</f>
         <v/>
@@ -50978,7 +50978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="110" s="11">
+    <row r="110" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A110" s="1">
         <f>'данные для анализа'!A110</f>
         <v/>
@@ -51025,7 +51025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="111" s="11">
+    <row r="111" ht="57.6" customHeight="1" s="11">
       <c r="A111" s="1">
         <f>'данные для анализа'!A111</f>
         <v/>
@@ -51063,7 +51063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="112" s="11">
+    <row r="112" ht="57.6" customHeight="1" s="11">
       <c r="A112" s="1">
         <f>'данные для анализа'!A112</f>
         <v/>
@@ -51089,7 +51089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="113" s="11">
+    <row r="113" ht="72" customHeight="1" s="11">
       <c r="A113" s="1">
         <f>'данные для анализа'!A113</f>
         <v/>
@@ -51124,7 +51124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="114" s="11">
+    <row r="114" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A114" s="1">
         <f>'данные для анализа'!A114</f>
         <v/>
@@ -51171,7 +51171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="115" s="11">
+    <row r="115" ht="100.8" customHeight="1" s="11">
       <c r="A115" s="1">
         <f>'данные для анализа'!A115</f>
         <v/>
@@ -51203,7 +51203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="43.2" r="116" s="11">
+    <row r="116" ht="43.2" customHeight="1" s="11">
       <c r="A116" s="1">
         <f>'данные для анализа'!A116</f>
         <v/>
@@ -51238,7 +51238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="172.8" r="117" s="11">
+    <row r="117" ht="172.8" customHeight="1" s="11">
       <c r="A117" s="1">
         <f>'данные для анализа'!A117</f>
         <v/>
@@ -51261,7 +51261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="100.8" r="118" s="11">
+    <row r="118" ht="100.8" customHeight="1" s="11">
       <c r="A118" s="1">
         <f>'данные для анализа'!A118</f>
         <v/>
@@ -51290,7 +51290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="119" s="11">
+    <row r="119" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A119" s="1">
         <f>'данные для анализа'!A119</f>
         <v/>
@@ -51337,7 +51337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="120" s="11">
+    <row r="120" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A120" s="1">
         <f>'данные для анализа'!A120</f>
         <v/>
@@ -51384,7 +51384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="121" s="11">
+    <row r="121" ht="57.6" customHeight="1" s="11">
       <c r="A121" s="1">
         <f>'данные для анализа'!A121</f>
         <v/>
@@ -51398,7 +51398,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="122" s="11">
+    <row r="122" ht="72" customHeight="1" s="11">
       <c r="A122" s="1">
         <f>'данные для анализа'!A122</f>
         <v/>
@@ -51445,7 +51445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="123" s="11">
+    <row r="123" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A123" s="1">
         <f>'данные для анализа'!A123</f>
         <v/>
@@ -51492,7 +51492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="124" s="11">
+    <row r="124" ht="57.6" customHeight="1" s="11">
       <c r="A124" s="1">
         <f>'данные для анализа'!A124</f>
         <v/>
@@ -51515,7 +51515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.40000000000001" r="125" s="11">
+    <row r="125" ht="86.40000000000001" customHeight="1" s="11">
       <c r="A125" s="1">
         <f>'данные для анализа'!A125</f>
         <v/>
@@ -51562,7 +51562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="126" s="11">
+    <row r="126" ht="57.6" customHeight="1" s="11">
       <c r="A126" s="1">
         <f>'данные для анализа'!A126</f>
         <v/>
@@ -51597,7 +51597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="127" s="11">
+    <row r="127" ht="57.6" customHeight="1" s="11">
       <c r="A127" s="1">
         <f>'данные для анализа'!A127</f>
         <v/>
@@ -51641,7 +51641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="128" s="11">
+    <row r="128" ht="57.6" customHeight="1" s="11">
       <c r="A128" s="1">
         <f>'данные для анализа'!A128</f>
         <v/>
@@ -51679,7 +51679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="129" s="11">
+    <row r="129" ht="72" customHeight="1" s="11">
       <c r="A129" s="1">
         <f>'данные для анализа'!A129</f>
         <v/>
@@ -51723,7 +51723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.6" r="130" s="11">
+    <row r="130" ht="57.6" customHeight="1" s="11">
       <c r="A130" s="1">
         <f>'данные для анализа'!A130</f>
         <v/>
@@ -78840,7 +78840,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>